--- a/common/Levy.xlsx
+++ b/common/Levy.xlsx
@@ -14,39 +14,206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>征收方式
-1=移动小人
-2=管家
-3=一键</t>
-  </si>
-  <si>
-    <t>资源类型
-1=铜钱
+    <r>
+      <t xml:space="preserve">征收入口
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1=男仆
+2=嬷嬷
+3=丫鬟
+4=书房-管家</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">征收资源类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1=铜钱
 2=阅历
 3=声望</t>
+    </r>
   </si>
   <si>
     <t>身份等级</t>
   </si>
   <si>
-    <t>气泡对白</t>
-  </si>
-  <si>
-    <t>描述对白</t>
-  </si>
-  <si>
-    <t>场景id</t>
-  </si>
-  <si>
-    <t>人物立绘</t>
-  </si>
-  <si>
-    <t>id int</t>
+    <t>对白</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>背景id</t>
+  </si>
+  <si>
+    <t>人物立绘id</t>
+  </si>
+  <si>
+    <t>表情id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">levy_mode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">income_type </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">level </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dialog </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bewrite </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scene_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">portray_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">expression_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -54,12 +221,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,9 +235,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,7 +371,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,126 +394,19 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,31 +415,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF48A088"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,31 +535,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,55 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,43 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,14 +605,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -415,11 +615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,17 +654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,15 +674,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +703,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,145 +747,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -725,6 +946,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="0048A088"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -991,47 +1217,81 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" ht="81.75" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="2" ht="32.25" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/common/Levy.xlsx
+++ b/common/Levy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="27150" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>序号</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">征收入口
 </t>
     </r>
@@ -38,6 +45,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">征收资源类型
 </t>
     </r>
@@ -73,6 +87,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -89,6 +110,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">levy_mode </t>
     </r>
     <r>
@@ -105,6 +133,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">income_type </t>
     </r>
     <r>
@@ -121,6 +156,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">level </t>
     </r>
     <r>
@@ -137,6 +179,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dialog </t>
     </r>
     <r>
@@ -153,6 +202,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bewrite </t>
     </r>
     <r>
@@ -169,6 +225,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Scene_id </t>
     </r>
     <r>
@@ -185,6 +248,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">portray_id </t>
     </r>
     <r>
@@ -201,6 +271,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">expression_id </t>
     </r>
     <r>
@@ -214,6 +291,24 @@
       </rPr>
       <t>int</t>
     </r>
+  </si>
+  <si>
+    <t>不屑的文本...</t>
+  </si>
+  <si>
+    <t>(不屑的文本...)描述</t>
+  </si>
+  <si>
+    <t>正常的文本...</t>
+  </si>
+  <si>
+    <t>(正常的文本...)描述</t>
+  </si>
+  <si>
+    <t>谄媚的文本...</t>
+  </si>
+  <si>
+    <t>(谄媚的文本...)描述</t>
   </si>
 </sst>
 </file>
@@ -223,8 +318,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -248,11 +343,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,23 +366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,62 +382,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +406,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -379,7 +474,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,169 +522,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +721,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,16 +768,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,26 +808,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,156 +830,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1217,19 +1309,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
@@ -1240,10 +1333,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1266,32 +1359,293 @@
       </c>
     </row>
     <row r="2" ht="32.25" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/common/Levy.xlsx
+++ b/common/Levy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">征收入口
 </t>
     </r>
@@ -38,6 +45,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">征收资源类型
 </t>
     </r>
@@ -73,6 +87,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -89,6 +110,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">levy_mode </t>
     </r>
     <r>
@@ -105,6 +133,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">income_type </t>
     </r>
     <r>
@@ -121,6 +156,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">level </t>
     </r>
     <r>
@@ -169,6 +211,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Scene_id </t>
     </r>
     <r>
@@ -185,6 +234,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">portray_id </t>
     </r>
     <r>
@@ -201,6 +257,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">expression_id </t>
     </r>
     <r>
@@ -215,16 +278,124 @@
       <t>int</t>
     </r>
   </si>
+  <si>
+    <t>库房事真多，我可是把你那份给忘了~要不改明儿再来吧。</t>
+  </si>
+  <si>
+    <t>今日是各房发份例的日子，你到库房找嬷嬷说明来意，对方却一脸不屑。</t>
+  </si>
+  <si>
+    <t>这月的份额上月早用光了，还有脸来讨。</t>
+  </si>
+  <si>
+    <t>省吃俭用总算挨到了发份例的日子了，可库房嬷嬷却无端生事嘲讽你。</t>
+  </si>
+  <si>
+    <t>这是娘子房里的那份，可没少您的。</t>
+  </si>
+  <si>
+    <t>今日你到库房领月例，嬷嬷磨磨蹭蹭了好半天才给你。</t>
+  </si>
+  <si>
+    <t>这月的份例都点过了，你拿去吧。</t>
+  </si>
+  <si>
+    <t>今日你找库房嬷嬷领份例，好在对方如数给了，并未生事。</t>
+  </si>
+  <si>
+    <t>娘子怎亲自过来了！您那份早备着呢。</t>
+  </si>
+  <si>
+    <t>你按日子到库房领份例，管事嬷嬷远远看见你，便一脸堆笑迎了上来。</t>
+  </si>
+  <si>
+    <t>正想给娘子送去呢，若不够娘子尽管吩咐。</t>
+  </si>
+  <si>
+    <t>库房今日发月例，你刚进门，嬷嬷那谄媚的嘴脸便凑了上来，态度和以往大不相同。</t>
+  </si>
+  <si>
+    <t>还愣着做什么，还不快干活！</t>
+  </si>
+  <si>
+    <t>庭院管事的见你来了，呵斥你将厨房和庭院的水缸都填满。</t>
+  </si>
+  <si>
+    <t>快将院子扫干净，敢偷懒看我不收拾你。</t>
+  </si>
+  <si>
+    <t>你在家里身份低微，庭院管事也总呵斥你干些杂活。</t>
+  </si>
+  <si>
+    <t>这些杂活让小的做就好了。</t>
+  </si>
+  <si>
+    <t>你见园子里的盆栽有些杂乱，便主动修剪，正好让管事看见了。</t>
+  </si>
+  <si>
+    <t>那就麻烦娘子啦。</t>
+  </si>
+  <si>
+    <t>今日无事，你到庭院看见下人在打理花草，你主动要求帮忙。</t>
+  </si>
+  <si>
+    <t>哎呦~怎能劳娘子亲自动手，小心脏了您的裙子。</t>
+  </si>
+  <si>
+    <t>你见庭院满是落叶，便主动打扫，庭院管事看见了慌忙制止。</t>
+  </si>
+  <si>
+    <t>这些个粗活，娘子应该吩咐下人做的~</t>
+  </si>
+  <si>
+    <t>你见庭院里的花开得甚好，便浇点水修剪修剪，打理一番，管事见了忙迎上来。</t>
+  </si>
+  <si>
+    <t>镯子就是你家婢子弄丢的，我这就告诉夫人。</t>
+  </si>
+  <si>
+    <t>丫鬟气势汹汹来你房中翻找长房丢失的镯子，你正欲辩解，却不想对方早已认定，根本不愿听你过多解释。</t>
+  </si>
+  <si>
+    <t>我们也是听上头吩咐办事，娘子还是自己问嬷嬷吧。</t>
+  </si>
+  <si>
+    <t>天气寒凉，这月的炭火却迟迟没送来，你找来库房丫鬟询问，对方却借口推辞。</t>
+  </si>
+  <si>
+    <t>夜里寒凉，婢子为娘子去取件衣衫来吧。</t>
+  </si>
+  <si>
+    <t>你为家中事烦恼夜里难眠，便独自坐在园中小亭里，路过的丫鬟看见了，见你衣衫单薄，上前关心道。</t>
+  </si>
+  <si>
+    <t>谢娘子大恩，婢子日后定报答您！</t>
+  </si>
+  <si>
+    <t>你听见假山后有哭声传来，上前询问后得知是小丫鬟母亲病重没钱医治，你见她可怜便出手相助，对方感激涕零，跪谢道。</t>
+  </si>
+  <si>
+    <t>娘子这好容貌，府上谁人能及？</t>
+  </si>
+  <si>
+    <t>早晨，库房的丫鬟来送采买的胭脂，见你在梳妆，趁机对你百般奉承。</t>
+  </si>
+  <si>
+    <t>娘子真是手巧，这绣工怕是宫中绣娘都不及您呢。</t>
+  </si>
+  <si>
+    <t>今日天气不错，左右无事，你坐在花园里绣花，园子里洒扫的小丫鬟见了忙凑上来奉承道。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -250,6 +421,37 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -257,7 +459,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,112 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -386,13 +564,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -427,19 +598,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,31 +718,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,109 +760,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,15 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -650,6 +812,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,11 +857,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,27 +881,23 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +906,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,137 +918,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,11 +1058,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1215,21 +1389,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="88.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
@@ -1240,10 +1415,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1266,33 +1441,505 @@
       </c>
     </row>
     <row r="2" ht="32.25" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="33" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/Levy.xlsx
+++ b/common/Levy.xlsx
@@ -179,6 +179,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dialog </t>
     </r>
     <r>
@@ -195,6 +202,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bewrite </t>
     </r>
     <r>
@@ -419,6 +433,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -428,51 +542,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -493,65 +562,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,6 +612,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -616,6 +660,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -670,36 +756,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -707,48 +763,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,17 +815,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,15 +854,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -851,30 +865,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,6 +888,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -906,10 +920,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -918,133 +932,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1394,7 +1408,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1469,7 +1483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1494,8 +1508,11 @@
       <c r="H3" s="1">
         <v>3</v>
       </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1520,8 +1537,11 @@
       <c r="H4" s="1">
         <v>3</v>
       </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1546,8 +1566,11 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1572,8 +1595,11 @@
       <c r="H6" s="1">
         <v>3</v>
       </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1598,8 +1624,11 @@
       <c r="H7" s="1">
         <v>3</v>
       </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1624,8 +1653,11 @@
       <c r="H8" s="1">
         <v>3</v>
       </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1650,8 +1682,11 @@
       <c r="H9" s="1">
         <v>2</v>
       </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1676,8 +1711,11 @@
       <c r="H10" s="1">
         <v>2</v>
       </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1702,8 +1740,11 @@
       <c r="H11" s="1">
         <v>2</v>
       </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1728,8 +1769,11 @@
       <c r="H12" s="1">
         <v>2</v>
       </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1754,8 +1798,11 @@
       <c r="H13" s="1">
         <v>2</v>
       </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1780,8 +1827,11 @@
       <c r="H14" s="1">
         <v>2</v>
       </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1806,8 +1856,11 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1832,8 +1885,11 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1858,8 +1914,11 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" ht="33" spans="1:8">
+    <row r="18" ht="33" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1884,8 +1943,11 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1910,8 +1972,11 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1935,6 +2000,9 @@
       </c>
       <c r="H20" s="1">
         <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:6">

--- a/common/Levy.xlsx
+++ b/common/Levy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="27150" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>序号</t>
   </si>
@@ -406,10 +406,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -434,7 +434,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,7 +500,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -457,7 +508,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,10 +554,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,96 +578,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -612,12 +612,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -625,168 +787,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,6 +815,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -832,8 +880,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -854,32 +904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -888,30 +912,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -920,10 +920,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,133 +932,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,12 +1403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1503,10 +1503,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="H3" s="1">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>21</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         <v>23</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="H5" s="1">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>25</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>29</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>31</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>33</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>35</v>
       </c>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         <v>37</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1793,10 +1793,10 @@
         <v>39</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>41</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1851,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>45</v>
       </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>47</v>
       </c>
       <c r="G17" s="1">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>49</v>
       </c>
       <c r="G18" s="1">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1967,10 +1967,10 @@
         <v>51</v>
       </c>
       <c r="G19" s="1">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1996,10 +1996,10 @@
         <v>53</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
